--- a/Dose Comparisons.xlsx
+++ b/Dose Comparisons.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Ac-225</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Ac-227</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Organ</t>
   </si>
   <si>
@@ -47,18 +44,15 @@
     <t>Spleen</t>
   </si>
   <si>
-    <t>Non-essential</t>
-  </si>
-  <si>
-    <t>Alpha Emitter</t>
-  </si>
-  <si>
     <t>Trastuzumab-DOTA-Ac-225</t>
   </si>
   <si>
     <t>125 d</t>
   </si>
   <si>
+    <t>100 d</t>
+  </si>
+  <si>
     <t>Cumulative Dose</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>7946 d</t>
   </si>
   <si>
-    <t>Recognized Human MTD (Gy)</t>
-  </si>
-  <si>
     <t>200 d</t>
   </si>
   <si>
@@ -122,16 +113,58 @@
     <t>(11.3-12.2)</t>
   </si>
   <si>
-    <t>(0.194-0.211)</t>
-  </si>
-  <si>
     <t>(0.023-0.026)</t>
   </si>
   <si>
     <t>DOTA-Ac-225</t>
   </si>
   <si>
-    <t>Current Study, Mouse Calculated Dose</t>
+    <t>Mouse Calculated Dose</t>
+  </si>
+  <si>
+    <t>Time of Maximum Dose</t>
+  </si>
+  <si>
+    <t>(0.015-0.018)</t>
+  </si>
+  <si>
+    <t>1 h</t>
+  </si>
+  <si>
+    <t>(3.0E-03-3.5E-03)</t>
+  </si>
+  <si>
+    <t>(4.1E-03-4.4E-03)</t>
+  </si>
+  <si>
+    <t>(2.9E-03-3.1E-03)</t>
+  </si>
+  <si>
+    <t>(5.1E-05-5.6E-05)</t>
+  </si>
+  <si>
+    <t>(3.4E-04-3.7E-04</t>
+  </si>
+  <si>
+    <t>(5.2E-04-6E-04)</t>
+  </si>
+  <si>
+    <t>(0.16-0.17)</t>
+  </si>
+  <si>
+    <t>(0.24-0.45)</t>
+  </si>
+  <si>
+    <t>(4.1E-05-7.7E-05)</t>
+  </si>
+  <si>
+    <t>(0.30-0.33)</t>
+  </si>
+  <si>
+    <t>(0.19-0.21)</t>
+  </si>
+  <si>
+    <t>(2.7E-05-2.9E-05)</t>
   </si>
 </sst>
 </file>
@@ -210,68 +243,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +595,7 @@
   <dimension ref="A4:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +603,8 @@
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
@@ -573,25 +614,25 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="16"/>
+      <c r="C4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="11"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="16"/>
+      <c r="F4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
@@ -599,384 +640,373 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
         <v>0.54</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6">
         <v>1.42</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="5">
-        <f>27/5</f>
-        <v>5.4</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="I6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
         <v>3.03</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6">
         <v>11.8</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9">
         <v>20.399999999999999</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9">
         <v>33.700000000000003</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="8"/>
+      <c r="I8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
         <v>0.06</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="6">
         <f>2.4/100</f>
         <v>2.4E-2</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="I9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="5">
-        <f>0.202</f>
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="21">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9">
         <v>0.88</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="9">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="20">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="19">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="18">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="18">
-        <v>0.54</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="19">
-        <v>1.42</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="19">
-        <f>27/5</f>
-        <v>5.4</v>
-      </c>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="F16" s="18">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="23">
+        <v>2.8E-5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="11">
-        <v>3.03</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="5">
-        <v>11.8</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="12">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="8">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="1">
-        <f>2.4/100</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="1">
-        <f>0.202</f>
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.88</v>
+      <c r="F17" s="18">
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>40</v>
+      </c>
+      <c r="H17" s="18">
+        <f>0.000059</f>
+        <v>5.8999999999999998E-5</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A6:A11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dose Comparisons.xlsx
+++ b/Dose Comparisons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesiu\Documents\projects\225227\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\Projects\225227\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="49">
   <si>
     <t>Ac-225</t>
   </si>
@@ -165,13 +165,31 @@
   </si>
   <si>
     <t>(2.7E-05-2.9E-05)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Summary of Dose Modeling.</t>
+    </r>
+  </si>
+  <si>
+    <t>use this one -----&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +213,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -239,78 +264,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,16 +674,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:K17"/>
+  <dimension ref="A3:S42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
@@ -610,243 +692,264 @@
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>0.54</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="2">
         <v>1.42</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>3.03</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="2">
         <v>11.8</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="3">
         <v>33.700000000000003</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>0.06</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
         <f>2.4/100</f>
         <v>2.4E-2</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="2">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="11">
         <f>0.2</f>
         <v>0.2</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="3">
         <v>0.88</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="1">
@@ -855,66 +958,66 @@
       <c r="I12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="13"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="10">
         <v>3.2399999999999998E-3</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="11">
         <v>0.16</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="9">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="12">
         <v>0.35</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="13"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -926,24 +1029,24 @@
       <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="8">
         <v>5.3999999999999998E-5</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="13"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
@@ -953,24 +1056,24 @@
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="8">
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="13">
         <v>2.8E-5</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
@@ -980,24 +1083,441 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="8">
         <v>5.5999999999999995E-4</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="8">
         <f>0.000059</f>
         <v>5.8999999999999998E-5</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="13"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="2"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="26"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="2"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="6"/>
+      <c r="L27" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="24"/>
+      <c r="L28" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="25">
+        <v>1.42</v>
+      </c>
+      <c r="S28" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K29" s="24"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="25">
+        <v>3.03</v>
+      </c>
+      <c r="Q29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="25">
+        <v>11.8</v>
+      </c>
+      <c r="S29" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K30" s="24"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="25">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="25">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="S30" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="24"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="24"/>
+      <c r="L32" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" s="25">
+        <f>2.4/100</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K33" s="6"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="25">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="28">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="S33" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K34" s="6"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="25">
+        <v>0.88</v>
+      </c>
+      <c r="Q34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" s="25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="S34" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="11:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K35" s="6"/>
+      <c r="L35" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+    </row>
+    <row r="36" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K36" s="24"/>
+      <c r="L36" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="25">
+        <v>0.31</v>
+      </c>
+      <c r="S36" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K37" s="24"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P37" s="29">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="Q37" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" s="28">
+        <v>0.16</v>
+      </c>
+      <c r="S37" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K38" s="24"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P38" s="29">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R38" s="28">
+        <v>0.35</v>
+      </c>
+      <c r="S38" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="11:19" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="24"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+    </row>
+    <row r="40" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K40" s="24"/>
+      <c r="L40" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O40" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q40" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R40" s="29">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="S40" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K41" s="24"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="29">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="Q41" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="R41" s="30">
+        <v>2.8E-5</v>
+      </c>
+      <c r="S41" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="6"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="32">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R42" s="32">
+        <f>0.000059</f>
+        <v>5.8999999999999998E-5</v>
+      </c>
+      <c r="S42" s="31" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="L27:S27"/>
+    <mergeCell ref="L35:S35"/>
+    <mergeCell ref="P25:S25"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
